--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Agt-Agtr1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Agtr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H2">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I2">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J2">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.7246186666666667</v>
+        <v>0.1356863333333333</v>
       </c>
       <c r="N2">
-        <v>2.173856</v>
+        <v>0.407059</v>
       </c>
       <c r="O2">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="P2">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="Q2">
-        <v>0.3393819156408889</v>
+        <v>0.01636761624611111</v>
       </c>
       <c r="R2">
-        <v>3.054437240768</v>
+        <v>0.147308546215</v>
       </c>
       <c r="S2">
-        <v>0.01606732475253381</v>
+        <v>0.0004451250822960088</v>
       </c>
       <c r="T2">
-        <v>0.01606732475253381</v>
+        <v>0.0004451250822960088</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,31 +581,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H3">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I3">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J3">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>51.587835</v>
       </c>
       <c r="O3">
-        <v>0.630085160334334</v>
+        <v>0.564494940478519</v>
       </c>
       <c r="P3">
-        <v>0.630085160334334</v>
+        <v>0.5644949404785189</v>
       </c>
       <c r="Q3">
-        <v>8.053881336236666</v>
+        <v>2.074318185441666</v>
       </c>
       <c r="R3">
-        <v>72.48493202613</v>
+        <v>18.668863668975</v>
       </c>
       <c r="S3">
-        <v>0.3812941143411201</v>
+        <v>0.05641206630942425</v>
       </c>
       <c r="T3">
-        <v>0.38129411434112</v>
+        <v>0.05641206630942423</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,31 +643,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.4683593333333333</v>
+        <v>0.1206283333333333</v>
       </c>
       <c r="H4">
-        <v>1.405078</v>
+        <v>0.361885</v>
       </c>
       <c r="I4">
-        <v>0.6051469521021553</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="J4">
-        <v>0.6051469521021552</v>
+        <v>0.09993369694616584</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>9.370898</v>
+        <v>13.13090033333333</v>
       </c>
       <c r="N4">
-        <v>28.112694</v>
+        <v>39.392701</v>
       </c>
       <c r="O4">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251812</v>
       </c>
       <c r="P4">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251811</v>
       </c>
       <c r="Q4">
-        <v>4.388947540014667</v>
+        <v>1.583958622376111</v>
       </c>
       <c r="R4">
-        <v>39.500527860132</v>
+        <v>14.255627601385</v>
       </c>
       <c r="S4">
-        <v>0.2077855130085014</v>
+        <v>0.0430765055544456</v>
       </c>
       <c r="T4">
-        <v>0.2077855130085013</v>
+        <v>0.04307650555444559</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,31 +705,31 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.3056003333333333</v>
+        <v>0.4683593333333333</v>
       </c>
       <c r="H5">
-        <v>0.916801</v>
+        <v>1.405078</v>
       </c>
       <c r="I5">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="J5">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -738,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.7246186666666667</v>
+        <v>0.1356863333333333</v>
       </c>
       <c r="N5">
-        <v>2.173856</v>
+        <v>0.407059</v>
       </c>
       <c r="O5">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="P5">
-        <v>0.02655111241446272</v>
+        <v>0.004454204096299941</v>
       </c>
       <c r="Q5">
-        <v>0.2214437060728889</v>
+        <v>0.06354996062244445</v>
       </c>
       <c r="R5">
-        <v>1.992993354656</v>
+        <v>0.571949645602</v>
       </c>
       <c r="S5">
-        <v>0.01048378766192891</v>
+        <v>0.001728271302713048</v>
       </c>
       <c r="T5">
-        <v>0.01048378766192891</v>
+        <v>0.001728271302713048</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,31 +767,31 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.3056003333333333</v>
+        <v>0.4683593333333333</v>
       </c>
       <c r="H6">
-        <v>0.916801</v>
+        <v>1.405078</v>
       </c>
       <c r="I6">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="J6">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>51.587835</v>
       </c>
       <c r="O6">
-        <v>0.630085160334334</v>
+        <v>0.564494940478519</v>
       </c>
       <c r="P6">
-        <v>0.630085160334334</v>
+        <v>0.5644949404785189</v>
       </c>
       <c r="Q6">
-        <v>5.255086523981666</v>
+        <v>8.053881336236666</v>
       </c>
       <c r="R6">
-        <v>47.295778715835</v>
+        <v>72.48493202613</v>
       </c>
       <c r="S6">
-        <v>0.248791045993214</v>
+        <v>0.2190291205933189</v>
       </c>
       <c r="T6">
-        <v>0.248791045993214</v>
+        <v>0.2190291205933188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,31 +829,31 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.3056003333333333</v>
+        <v>0.4683593333333333</v>
       </c>
       <c r="H7">
-        <v>0.916801</v>
+        <v>1.405078</v>
       </c>
       <c r="I7">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="J7">
-        <v>0.3948530478978448</v>
+        <v>0.3880090057275787</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,214 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>9.370898</v>
+        <v>13.13090033333333</v>
       </c>
       <c r="N7">
-        <v>28.112694</v>
+        <v>39.392701</v>
       </c>
       <c r="O7">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251812</v>
       </c>
       <c r="P7">
-        <v>0.3433637272512032</v>
+        <v>0.4310508554251811</v>
       </c>
       <c r="Q7">
-        <v>2.863749552432667</v>
+        <v>6.149979726186445</v>
       </c>
       <c r="R7">
-        <v>25.773745971894</v>
+        <v>55.34981753567801</v>
       </c>
       <c r="S7">
-        <v>0.1355782142427019</v>
+        <v>0.1672516138315468</v>
       </c>
       <c r="T7">
-        <v>0.1355782142427019</v>
+        <v>0.1672516138315468</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0.618096</v>
+      </c>
+      <c r="H8">
+        <v>1.854288</v>
+      </c>
+      <c r="I8">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J8">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.1356863333333333</v>
+      </c>
+      <c r="N8">
+        <v>0.407059</v>
+      </c>
+      <c r="O8">
+        <v>0.004454204096299941</v>
+      </c>
+      <c r="P8">
+        <v>0.004454204096299941</v>
+      </c>
+      <c r="Q8">
+        <v>0.08386717988799999</v>
+      </c>
+      <c r="R8">
+        <v>0.754804618992</v>
+      </c>
+      <c r="S8">
+        <v>0.002280807711290884</v>
+      </c>
+      <c r="T8">
+        <v>0.002280807711290884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0.618096</v>
+      </c>
+      <c r="H9">
+        <v>1.854288</v>
+      </c>
+      <c r="I9">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J9">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>17.195945</v>
+      </c>
+      <c r="N9">
+        <v>51.587835</v>
+      </c>
+      <c r="O9">
+        <v>0.564494940478519</v>
+      </c>
+      <c r="P9">
+        <v>0.5644949404785189</v>
+      </c>
+      <c r="Q9">
+        <v>10.62874482072</v>
+      </c>
+      <c r="R9">
+        <v>95.65870338648</v>
+      </c>
+      <c r="S9">
+        <v>0.2890537535757759</v>
+      </c>
+      <c r="T9">
+        <v>0.2890537535757758</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0.618096</v>
+      </c>
+      <c r="H10">
+        <v>1.854288</v>
+      </c>
+      <c r="I10">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="J10">
+        <v>0.5120572973262555</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>13.13090033333333</v>
+      </c>
+      <c r="N10">
+        <v>39.392701</v>
+      </c>
+      <c r="O10">
+        <v>0.4310508554251812</v>
+      </c>
+      <c r="P10">
+        <v>0.4310508554251811</v>
+      </c>
+      <c r="Q10">
+        <v>8.116156972432</v>
+      </c>
+      <c r="R10">
+        <v>73.04541275188801</v>
+      </c>
+      <c r="S10">
+        <v>0.2207227360391888</v>
+      </c>
+      <c r="T10">
+        <v>0.2207227360391887</v>
       </c>
     </row>
   </sheetData>
